--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_3.xlsx
@@ -478,311 +478,311 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_4</t>
+          <t>model_7_3_22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4150661881309579</v>
+        <v>0.6527417204065737</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02327758772687405</v>
+        <v>-1.076986097008408</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.83566597706087</v>
+        <v>0.2831971299617413</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8947990042685239</v>
+        <v>-0.4340917799518298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6473493576049805</v>
+        <v>0.3843125998973846</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8740256428718567</v>
+        <v>2.002768516540527</v>
       </c>
       <c r="H2" t="n">
-        <v>1.413573026657104</v>
+        <v>0.3571963012218475</v>
       </c>
       <c r="I2" t="n">
-        <v>1.127928733825684</v>
+        <v>1.228379487991333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_5</t>
+          <t>model_7_3_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4168583215658866</v>
+        <v>0.6557679162826306</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03178239884242307</v>
+        <v>-1.059926389773422</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.07619183080737</v>
+        <v>0.2807720278777682</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9405847408037331</v>
+        <v>-0.424593036065892</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6453660130500793</v>
+        <v>0.3809634745121002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8812898993492126</v>
+        <v>1.986318349838257</v>
       </c>
       <c r="H3" t="n">
-        <v>1.463312268257141</v>
+        <v>0.3584047853946686</v>
       </c>
       <c r="I3" t="n">
-        <v>1.155183911323547</v>
+        <v>1.220243334770203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_3</t>
+          <t>model_7_3_24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4361763038748971</v>
+        <v>0.6581054898367903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07219824890284343</v>
+        <v>-1.042470777745613</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.099033593643645</v>
+        <v>0.2702141518763468</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7018537456399674</v>
+        <v>-0.4170822945868511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6239866614341736</v>
+        <v>0.3783764839172363</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7924755811691284</v>
+        <v>1.969486713409424</v>
       </c>
       <c r="H4" t="n">
-        <v>1.261242032051086</v>
+        <v>0.3636659979820251</v>
       </c>
       <c r="I4" t="n">
-        <v>1.013072848320007</v>
+        <v>1.213809967041016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_22</t>
+          <t>model_7_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4369197040639436</v>
+        <v>0.6616847229553402</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1300806271490613</v>
+        <v>-1.025443730758705</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.34851678327589</v>
+        <v>0.3112407722137548</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.713675499298555</v>
+        <v>-0.3956982949722045</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6231639981269836</v>
+        <v>0.3744153380393982</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9652506709098816</v>
+        <v>1.953068017959595</v>
       </c>
       <c r="H5" t="n">
-        <v>2.346802234649658</v>
+        <v>0.3432216644287109</v>
       </c>
       <c r="I5" t="n">
-        <v>1.615386247634888</v>
+        <v>1.195493340492249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_21</t>
+          <t>model_7_3_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4383106398113074</v>
+        <v>0.6622821195235455</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1096746713954846</v>
+        <v>-1.015258006641595</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.32009908798145</v>
+        <v>0.3036606396937693</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.693522051853762</v>
+        <v>-0.3917050613535327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6216245889663696</v>
+        <v>0.3737541735172272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9478210806846619</v>
+        <v>1.943246245384216</v>
       </c>
       <c r="H6" t="n">
-        <v>2.340925693511963</v>
+        <v>0.3469989597797394</v>
       </c>
       <c r="I6" t="n">
-        <v>1.603389382362366</v>
+        <v>1.192072868347168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_20</t>
+          <t>model_7_3_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4451664830160856</v>
+        <v>0.6656520100818517</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05629602517055088</v>
+        <v>0.4328243385309309</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.21700663017861</v>
+        <v>0.1968968018885028</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.636111475576228</v>
+        <v>0.4421024141572517</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6140371561050415</v>
+        <v>0.3700246810913086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.902228057384491</v>
+        <v>0.5469086170196533</v>
       </c>
       <c r="H7" t="n">
-        <v>2.319606781005859</v>
+        <v>0.4002013802528381</v>
       </c>
       <c r="I7" t="n">
-        <v>1.569214344024658</v>
+        <v>0.477870374917984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_19</t>
+          <t>model_7_3_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4521670677098067</v>
+        <v>0.6697019019140396</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.08262802722736917</v>
+        <v>-0.9574554003626063</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.582143098072997</v>
+        <v>0.3108935369669598</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.552352971735216</v>
+        <v>-0.3552710248468809</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6062895655632019</v>
+        <v>0.3655426502227783</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9247193932533264</v>
+        <v>1.887508988380432</v>
       </c>
       <c r="H8" t="n">
-        <v>2.188321113586426</v>
+        <v>0.3433946967124939</v>
       </c>
       <c r="I8" t="n">
-        <v>1.519354701042175</v>
+        <v>1.160865187644958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_24</t>
+          <t>model_7_3_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4593017632895507</v>
+        <v>0.6723874611275902</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2474959059259574</v>
+        <v>-0.948376761427969</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.498075384580952</v>
+        <v>0.3194469156731838</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.663842726810258</v>
+        <v>-0.3475185608506703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5983936190605164</v>
+        <v>0.3625705540180206</v>
       </c>
       <c r="G9" t="n">
-        <v>1.065540194511414</v>
+        <v>1.87875497341156</v>
       </c>
       <c r="H9" t="n">
-        <v>2.170936584472656</v>
+        <v>0.3391323685646057</v>
       </c>
       <c r="I9" t="n">
-        <v>1.585721969604492</v>
+        <v>1.154224872589111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_18</t>
+          <t>model_7_3_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4626044462474959</v>
+        <v>0.6732547245156322</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1138983067158896</v>
+        <v>0.3861529080667694</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.665033267263667</v>
+        <v>0.1187722819988261</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.426170121038312</v>
+        <v>0.3928961228641034</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5947385430335999</v>
+        <v>0.3616107106208801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9514286518096924</v>
+        <v>0.5919123291969299</v>
       </c>
       <c r="H10" t="n">
-        <v>1.998668432235718</v>
+        <v>0.4391322731971741</v>
       </c>
       <c r="I10" t="n">
-        <v>1.444241285324097</v>
+        <v>0.5200182795524597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_23</t>
+          <t>model_7_3_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4634227318752339</v>
+        <v>0.6738025962167786</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2428871487323634</v>
+        <v>-0.4708913753111801</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.240719318382194</v>
+        <v>-0.03590516389094134</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.618272018240418</v>
+        <v>-0.160232878260385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5938329100608826</v>
+        <v>0.3610044121742249</v>
       </c>
       <c r="G11" t="n">
-        <v>1.061603665351868</v>
+        <v>1.418331623077393</v>
       </c>
       <c r="H11" t="n">
-        <v>2.117716789245605</v>
+        <v>0.5162109732627869</v>
       </c>
       <c r="I11" t="n">
-        <v>1.558594703674316</v>
+        <v>0.9938041567802429</v>
       </c>
     </row>
     <row r="12">
@@ -792,462 +792,462 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4696833555695507</v>
+        <v>0.6765076320527268</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06419018578162716</v>
+        <v>-0.9062226958472819</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.504175574926265</v>
+        <v>0.3113211583975165</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.362130082943829</v>
+        <v>-0.3246199529532525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5869043469429016</v>
+        <v>0.3580107092857361</v>
       </c>
       <c r="G12" t="n">
-        <v>0.908970832824707</v>
+        <v>1.838106989860535</v>
       </c>
       <c r="H12" t="n">
-        <v>1.965404152870178</v>
+        <v>0.3431815803050995</v>
       </c>
       <c r="I12" t="n">
-        <v>1.406119585037231</v>
+        <v>1.134610772132874</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_16</t>
+          <t>model_7_3_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4753047800132155</v>
+        <v>0.6831351593780601</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02363767178198883</v>
+        <v>-0.8158529917709556</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.381348899807733</v>
+        <v>0.2632816383256307</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.311234415144031</v>
+        <v>-0.2839174171709842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5806830525398254</v>
+        <v>0.3506760001182556</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8743331432342529</v>
+        <v>1.750966548919678</v>
       </c>
       <c r="H13" t="n">
-        <v>1.940004348754883</v>
+        <v>0.3671205639839172</v>
       </c>
       <c r="I13" t="n">
-        <v>1.37582266330719</v>
+        <v>1.099746704101562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_15</t>
+          <t>model_7_3_3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.479381462307176</v>
+        <v>0.6832342214041476</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01280141803934021</v>
+        <v>-0.2789527786092287</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.273771959393882</v>
+        <v>-0.06217504647952543</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.265966353778693</v>
+        <v>-0.05303254264701351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5761712193489075</v>
+        <v>0.3505663871765137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8432089686393738</v>
+        <v>1.233251690864563</v>
       </c>
       <c r="H14" t="n">
-        <v>1.917758107185364</v>
+        <v>0.5293017625808716</v>
       </c>
       <c r="I14" t="n">
-        <v>1.348875641822815</v>
+        <v>0.9019810557365417</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_2</t>
+          <t>model_7_3_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4808831858108309</v>
+        <v>0.6877769576055393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1124473281090184</v>
+        <v>-0.78636728889883</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.215609013668069</v>
+        <v>0.2607254164085511</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3633842672330605</v>
+        <v>-0.2670402084037933</v>
       </c>
       <c r="F15" t="n">
-        <v>0.57450932264328</v>
+        <v>0.3455388844013214</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7580971121788025</v>
+        <v>1.722534537315369</v>
       </c>
       <c r="H15" t="n">
-        <v>0.871761679649353</v>
+        <v>0.3683943748474121</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8115900754928589</v>
+        <v>1.085290551185608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_14</t>
+          <t>model_7_3_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4837358586758547</v>
+        <v>0.7070344925899879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02801015755401415</v>
+        <v>-0.1539898299829319</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.96780857783194</v>
+        <v>0.05940182219026624</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.204412870526349</v>
+        <v>0.05472783179540841</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5713523030281067</v>
+        <v>0.3242264688014984</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8302185535430908</v>
+        <v>1.112753987312317</v>
       </c>
       <c r="H16" t="n">
-        <v>1.854486703872681</v>
+        <v>0.4687176942825317</v>
       </c>
       <c r="I16" t="n">
-        <v>1.312234163284302</v>
+        <v>0.809678316116333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_13</t>
+          <t>model_7_3_11</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4934125071712731</v>
+        <v>0.7223410045836549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05994738068465222</v>
+        <v>-0.5244593641870401</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.631170586410869</v>
+        <v>0.3622080320478247</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.125104493582356</v>
+        <v>-0.08316649438548107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5606430768966675</v>
+        <v>0.3072867095470428</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8029395937919617</v>
+        <v>1.469985485076904</v>
       </c>
       <c r="H17" t="n">
-        <v>1.784872174263</v>
+        <v>0.3178237080574036</v>
       </c>
       <c r="I17" t="n">
-        <v>1.265023946762085</v>
+        <v>0.9277924299240112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_1</t>
+          <t>model_7_3_10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4967938811767894</v>
+        <v>0.7249347593765983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1124871564018018</v>
+        <v>-0.5012871446098954</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.247142282839938</v>
+        <v>0.3664222266390378</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2050280273614868</v>
+        <v>-0.06820142639812365</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5569008588790894</v>
+        <v>0.3044161796569824</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7580630779266357</v>
+        <v>1.447641253471375</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6714887619018555</v>
+        <v>0.3157236874103546</v>
       </c>
       <c r="I18" t="n">
-        <v>0.717324435710907</v>
+        <v>0.9149740934371948</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_0</t>
+          <t>model_7_3_9</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.499051142771048</v>
+        <v>0.7258458036428029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1216175844683272</v>
+        <v>-0.4842655084454499</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.852205438902252</v>
+        <v>0.3595989038938505</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1335183362302359</v>
+        <v>-0.05992451687219313</v>
       </c>
       <c r="F19" t="n">
-        <v>0.554402768611908</v>
+        <v>0.3034079372882843</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7502644062042236</v>
+        <v>1.431227803230286</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5898182392120361</v>
+        <v>0.3191238641738892</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6747564077377319</v>
+        <v>0.907884418964386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_11</t>
+          <t>model_7_3_14</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5007069846972314</v>
+        <v>0.7347336407115015</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1404867552014373</v>
+        <v>-0.5178306739768346</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.281574905109609</v>
+        <v>0.4525841892862353</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.006777346792979</v>
+        <v>-0.05447235213876733</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5525702238082886</v>
+        <v>0.2935717105865479</v>
       </c>
       <c r="G20" t="n">
-        <v>0.734147310256958</v>
+        <v>1.463593602180481</v>
       </c>
       <c r="H20" t="n">
-        <v>1.712578058242798</v>
+        <v>0.2727875709533691</v>
       </c>
       <c r="I20" t="n">
-        <v>1.194586753845215</v>
+        <v>0.9032142758369446</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_12</t>
+          <t>model_7_3_8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5030340564589</v>
+        <v>0.7370748460540743</v>
       </c>
       <c r="C21" t="n">
-        <v>0.104341150066557</v>
+        <v>-0.3702127409088514</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.380510233923511</v>
+        <v>0.3546238795574079</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.050379731227873</v>
+        <v>0.00668580879056424</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5499948263168335</v>
+        <v>0.2909806668758392</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7650209665298462</v>
+        <v>1.321250438690186</v>
       </c>
       <c r="H21" t="n">
-        <v>1.733037114143372</v>
+        <v>0.321603000164032</v>
       </c>
       <c r="I21" t="n">
-        <v>1.220541954040527</v>
+        <v>0.8508289456367493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_9</t>
+          <t>model_7_3_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5035024713639993</v>
+        <v>0.7386364994529717</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16627452743233</v>
+        <v>-0.3528109894226359</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.887113140181275</v>
+        <v>0.3585588922394196</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9226781657065908</v>
+        <v>0.01813520385558787</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5494765043258667</v>
+        <v>0.289252370595932</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7121209502220154</v>
+        <v>1.304470658302307</v>
       </c>
       <c r="H22" t="n">
-        <v>1.631005764007568</v>
+        <v>0.3196421265602112</v>
       </c>
       <c r="I22" t="n">
-        <v>1.144524574279785</v>
+        <v>0.8410219550132751</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_7</t>
+          <t>model_7_3_5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5058533364902857</v>
+        <v>0.7411201802507892</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2066605616997346</v>
+        <v>-0.3186781200121902</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.66458905697111</v>
+        <v>0.3605813847541544</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.8556345324776817</v>
+        <v>0.03903198611842817</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5468747615814209</v>
+        <v>0.2865037024021149</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6776254773139954</v>
+        <v>1.271557331085205</v>
       </c>
       <c r="H23" t="n">
-        <v>1.584989190101624</v>
+        <v>0.3186342716217041</v>
       </c>
       <c r="I23" t="n">
-        <v>1.104614973068237</v>
+        <v>0.8231225609779358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_8</t>
+          <t>model_7_3_6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5061001713727744</v>
+        <v>0.7429013378154702</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1930979858814013</v>
+        <v>-0.3239783361199589</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.768946119751738</v>
+        <v>0.3790390922539143</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.8830055682029081</v>
+        <v>0.04092549056512562</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5466015934944153</v>
+        <v>0.2845324873924255</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6892098784446716</v>
+        <v>1.276668190956116</v>
       </c>
       <c r="H24" t="n">
-        <v>1.606569528579712</v>
+        <v>0.3094364702701569</v>
       </c>
       <c r="I24" t="n">
-        <v>1.120908141136169</v>
+        <v>0.8215007185935974</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_10</t>
+          <t>model_7_3_13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5082838376052462</v>
+        <v>0.7440468795814711</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1714290430627057</v>
+        <v>-0.4696435426386494</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.941440883544904</v>
+        <v>0.4992462333083746</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.9276666918196319</v>
+        <v>-0.01297832055689629</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5441848635673523</v>
+        <v>0.2832646667957306</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7077182531356812</v>
+        <v>1.417128324508667</v>
       </c>
       <c r="H25" t="n">
-        <v>1.642240405082703</v>
+        <v>0.2495349943637848</v>
       </c>
       <c r="I25" t="n">
-        <v>1.147493958473206</v>
+        <v>0.8676723837852478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_3_6</t>
+          <t>model_7_3_12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5586805131464243</v>
+        <v>0.746085185891634</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09420381343830031</v>
+        <v>-0.4537914509202188</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.432832380063259</v>
+        <v>0.5075222197061466</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4127562659015489</v>
+        <v>-0.001267400542537933</v>
       </c>
       <c r="F26" t="n">
-        <v>0.488410621881485</v>
+        <v>0.2810088992118835</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7736796140670776</v>
+        <v>1.401842713356018</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9166820049285889</v>
+        <v>0.2454109191894531</v>
       </c>
       <c r="I26" t="n">
-        <v>0.840980052947998</v>
+        <v>0.857641339302063</v>
       </c>
     </row>
   </sheetData>
